--- a/REGULAR/CHO/BATHAN, FRANNIE.xlsx
+++ b/REGULAR/CHO/BATHAN, FRANNIE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>8/8,10/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>10/16,23-26/2023</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2645,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3014,12 +3023,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K138"/>
+  <dimension ref="A2:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,7 +3191,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.7080000000000002</v>
+        <v>4.4580000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3192,7 +3201,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.125</v>
+        <v>1.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3638,13 +3647,15 @@
       <c r="B29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="39"/>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="39">
         <v>2</v>
@@ -3656,15 +3667,19 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="40">
+        <v>45170</v>
+      </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D30" s="39"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
@@ -3672,26 +3687,42 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D31" s="39"/>
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H31" s="39"/>
+      <c r="G31" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="39">
+        <v>5</v>
+      </c>
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="20"/>
+      <c r="K31" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="39"/>
+      <c r="D32" s="39">
+        <v>1</v>
+      </c>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13" t="str">
@@ -3701,10 +3732,14 @@
       <c r="H32" s="39"/>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="48">
+        <v>45261</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="40">
+        <v>45261</v>
+      </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -3720,7 +3755,9 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="51" t="s">
+        <v>64</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -3736,7 +3773,9 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="40">
+        <v>45292</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
@@ -3752,7 +3791,9 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="40">
+        <v>45323</v>
+      </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
@@ -3768,7 +3809,9 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="40">
+        <v>45352</v>
+      </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
@@ -3784,7 +3827,9 @@
       <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="40">
+        <v>45383</v>
+      </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -3800,7 +3845,9 @@
       <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
+      <c r="A39" s="40">
+        <v>45413</v>
+      </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
@@ -3816,7 +3863,9 @@
       <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="40">
+        <v>45444</v>
+      </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
@@ -3832,7 +3881,9 @@
       <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="40">
+        <v>45474</v>
+      </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
@@ -3848,7 +3899,9 @@
       <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="40">
+        <v>45505</v>
+      </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
       <c r="D42" s="39"/>
@@ -5368,36 +5421,52 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
       <c r="D138" s="43"/>
-      <c r="E138" s="49"/>
+      <c r="E138" s="9"/>
       <c r="F138" s="15"/>
       <c r="G138" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H138" s="43"/>
-      <c r="I138" s="49"/>
+      <c r="I138" s="9"/>
       <c r="J138" s="12"/>
       <c r="K138" s="15"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="41"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="43"/>
+      <c r="I139" s="49"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5567,7 +5636,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>4.8330000000000002</v>
+        <v>6.3330000000000002</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
